--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
     <sheet name="double_license_sso" sheetId="4" r:id="rId2"/>
-    <sheet name="deny_approvel" sheetId="7" r:id="rId3"/>
+    <sheet name="termina_approvel" sheetId="7" r:id="rId3"/>
     <sheet name="agree_approvel" sheetId="5" r:id="rId4"/>
-    <sheet name="urgent_approvel" sheetId="8" r:id="rId5"/>
-    <sheet name="agree_urgent" sheetId="9" r:id="rId6"/>
+    <sheet name="deny_approvel" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -49,10 +48,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>访问审批/紧急运维3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>描述10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -65,34 +60,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 test 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 d 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 sp1 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -101,96 +68,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问审批同意test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为一级审批人只需一人审批通过所以用户sp1收到的审批消息状态为过期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户test同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户d同意访问审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户xx发送紧急运维成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急运维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a(a) sp1(sp1) test(test) d(d)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户sp1拒绝审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以test没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级审批人拒绝审批所以d没有收到审批消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批拒绝a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批拒绝sp1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户test同意紧急审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a同意紧急审批</t>
-  </si>
-  <si>
-    <t>紧急审批同意a</t>
-  </si>
-  <si>
-    <t>紧急审批同意test</t>
-  </si>
-  <si>
-    <t>紧急审批每一级的审批人只需一人通过，审批通过</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -235,6 +113,50 @@
   </si>
   <si>
     <t>双人审批终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人已下线，审批失效！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人审批申请人已下线审批过期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意或拒绝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户a同意双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人审批同意</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户a拒绝双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人审批拒绝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同终端发送双人审批成功</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,14 +371,8 @@
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -778,18 +694,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -814,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -839,53 +755,53 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -897,88 +813,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="16" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+      <c r="B1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="19">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -989,87 +856,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>14</v>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1080,156 +905,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="14.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>31</v>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="66.125" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="termina_approvel" sheetId="7" r:id="rId3"/>
     <sheet name="agree_approvel" sheetId="5" r:id="rId4"/>
     <sheet name="deny_approvel" sheetId="10" r:id="rId5"/>
+    <sheet name="process_task" sheetId="11" r:id="rId6"/>
+    <sheet name="apply_history" sheetId="12" r:id="rId7"/>
+    <sheet name="personal_history" sheetId="13" r:id="rId8"/>
+    <sheet name="all_history" sheetId="14" r:id="rId9"/>
+    <sheet name="department_history" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -157,6 +162,169 @@
   </si>
   <si>
     <t>同终端发送双人审批成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标IP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程任务查询待办流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程任务查询已办流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a 1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门历史查询未通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门历史查询已通过流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.182</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,6 +900,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
@@ -907,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -951,4 +1256,493 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <v>182</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -23,11 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
   <si>
     <t>流程测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -41,38 +37,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意或拒绝2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -89,10 +53,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>授权名称1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>用户xx发送双人审批成功</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -129,14 +89,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>同意或拒绝</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -162,10 +114,6 @@
   </si>
   <si>
     <t>同终端发送双人审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -325,6 +273,94 @@
   </si>
   <si>
     <t>172.16.10.182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意或拒绝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S04_doubleLic_add_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F12_S29_doubleLic_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F12_S29_doubleLic_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_Approval_overdue_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_Approval_accept_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_Approval_deny_005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_search_006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S23_search_006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S24_search_007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S25_search_008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S32_search_009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F09_S33_search_010</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -860,34 +899,41 @@
     <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="9" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="9"/>
+    <col min="5" max="5" width="38.625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -902,76 +948,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -980,37 +1035,40 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1019,10 +1077,13 @@
         <v>2017</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1033,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1046,67 +1107,76 @@
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="14.25">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1118,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1129,28 +1199,35 @@
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1172,34 +1249,41 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>60</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1222,34 +1306,41 @@
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1260,74 +1351,81 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="3">
@@ -1337,43 +1435,49 @@
         <v>2017</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>2017</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1384,58 +1488,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="35.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>182</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1444,27 +1556,30 @@
         <v>2017</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1473,10 +1588,13 @@
         <v>2017</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1487,76 +1605,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -1565,49 +1693,55 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1618,76 +1752,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -1696,37 +1839,40 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1735,10 +1881,13 @@
         <v>2017</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -951,7 +951,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1432,7 +1432,7 @@
         <v>182</v>
       </c>
       <c r="I2" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>11</v>
@@ -1468,7 +1468,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>11</v>
@@ -1490,7 +1490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1553,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -1608,7 +1610,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1755,7 +1757,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1878,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>11</v>

--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 a 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>授权人密码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -97,15 +89,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>用户a同意双人审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>双人审批同意</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a拒绝双人审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -219,23 +203,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a 1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>x</t>
     </r>
     <r>
@@ -361,6 +328,26 @@
   </si>
   <si>
     <t>test_F09_S33_search_010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 sp2 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 sp2 1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp2同意双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp2拒绝双人审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -905,24 +892,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -930,7 +917,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -951,7 +938,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -967,66 +954,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -1035,40 +1022,40 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1077,13 +1064,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1084,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,71 +1099,71 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1178,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1204,30 +1191,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1228,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1254,36 +1241,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1284,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1311,36 +1298,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1341,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1370,57 +1357,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1435,28 +1422,28 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1465,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1478,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1505,51 +1492,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3">
         <v>182</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1558,30 +1545,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1590,13 +1577,13 @@
         <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1609,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1627,66 +1614,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -1695,55 +1682,55 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1744,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1773,66 +1760,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3">
         <v>182</v>
@@ -1841,40 +1828,40 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1883,13 +1870,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -25,14 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
   <si>
-    <t>流程测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -239,10 +231,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.182</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -331,24 +319,36 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2 sp2 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 sp2 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户sp2同意双人审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户sp2拒绝双人审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>cyysr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyx 1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyx同意双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyx拒绝双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyx 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人授权测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -876,14 +876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="9" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.625" style="9" customWidth="1"/>
@@ -892,32 +892,32 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -954,108 +954,108 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1099,71 +1099,71 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,30 +1191,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1241,36 +1241,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1298,36 +1298,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1357,57 +1357,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1416,34 +1416,34 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1452,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1492,51 +1492,51 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3">
-        <v>182</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1545,30 +1545,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1577,13 +1577,13 @@
         <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1614,123 +1614,123 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1760,108 +1760,108 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1870,13 +1870,13 @@
         <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
